--- a/InputData/trans/AVPC/Annual Vehicle Parking Costs.xlsx
+++ b/InputData/trans/AVPC/Annual Vehicle Parking Costs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\AVPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-mexico\InputData\trans\AVPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE5C0E1-FFC8-4760-BC76-F4AD6505844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C61E0AC-3A82-4945-AF9F-9365208E5A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1470" windowWidth="18165" windowHeight="21135" xr2:uid="{7A96142A-95FE-491D-9737-978D460925CE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7A96142A-95FE-491D-9737-978D460925CE}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="AVPC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>AVPC Annual Vehicle Parking Costs</t>
   </si>
@@ -44,114 +44,15 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>INRIX</t>
-  </si>
-  <si>
     <t>Parking Costs in Major Cities</t>
   </si>
   <si>
-    <t>https://inrix.com/press-releases/cod-us/</t>
-  </si>
-  <si>
-    <t>New INRIX Study Finds Parking is the Largest Cost of Driving</t>
-  </si>
-  <si>
-    <t>Time Spent Looking for Parking</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>Washington DC</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>U.S. Average</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>Cost (2017 USD/yr)</t>
-  </si>
-  <si>
-    <t>Cost to Time Ratio</t>
-  </si>
-  <si>
-    <t>Time Spent (hr/yr)</t>
-  </si>
-  <si>
-    <t>https://www.usatoday.com/story/money/2017/07/12/parking-pain-causes-financial-and-personal-strain/467637001/</t>
-  </si>
-  <si>
-    <t>Drivers spend an average of 17 hours a year searching for parking spots</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>INRIX has annual parking costs (per driver) for 10 major U.S. cities.</t>
-  </si>
-  <si>
-    <t>However, this does not reflect a nation-wide average, which includes</t>
-  </si>
-  <si>
-    <t>many smaller cities, towns and rural areas.</t>
-  </si>
-  <si>
-    <t>INRIX also has the annual amount of time spent looking for parking</t>
-  </si>
-  <si>
-    <t>in the same 10 major U.S. cities, and a national average for the whole U.S.</t>
-  </si>
-  <si>
-    <t>In order to estimate parking costs for the whole U.S., we assume that the</t>
-  </si>
-  <si>
-    <t>amount of money paid for parking and the amount of time spent looking</t>
-  </si>
-  <si>
-    <t>for parking in a given place are directly proportionate to each other</t>
-  </si>
-  <si>
-    <t>outstrips supply, causing longer time spent looking for parking).</t>
-  </si>
-  <si>
-    <t>We establish an average ratio of cost-to-time for the ten major cities</t>
-  </si>
-  <si>
-    <t>and apply this ratio to the national average time spent looking for parking</t>
-  </si>
-  <si>
-    <t>to obtain a national average parking cost.</t>
-  </si>
-  <si>
     <t>Conversion Factor</t>
   </si>
   <si>
-    <t>2017 to 2012 USD</t>
-  </si>
-  <si>
     <t>2012 USD/year</t>
   </si>
   <si>
@@ -179,17 +80,85 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>(as non-free parking, and parking rates, would rise in situations where demand</t>
+    <t>2019 to 2012 USD</t>
+  </si>
+  <si>
+    <t>DEPRISA</t>
+  </si>
+  <si>
+    <t>Mainstream commercial parking lot operator</t>
+  </si>
+  <si>
+    <t>https://deprisa.com.mx/tarifas/</t>
+  </si>
+  <si>
+    <t>Parkmeter system</t>
+  </si>
+  <si>
+    <t>ECOPARQ</t>
+  </si>
+  <si>
+    <t>Parkmeter concession in Mexico City</t>
+  </si>
+  <si>
+    <t>https://www.ecoparq.cdmx.gob.mx/preguntasfrecuentes/preguntas-frecuentes</t>
+  </si>
+  <si>
+    <t>2019 MXN/yr</t>
+  </si>
+  <si>
+    <t>2019 mxn/usd</t>
+  </si>
+  <si>
+    <t>Simple average</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>yearly cost</t>
+  </si>
+  <si>
+    <t>$/hr</t>
+  </si>
+  <si>
+    <t>of vehicles 5h week</t>
+  </si>
+  <si>
+    <t>$/day</t>
+  </si>
+  <si>
+    <t>of vehicles 5d week</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>of vehicles require it</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>of vehicles 10h week</t>
+  </si>
+  <si>
+    <t>2019 usd / yr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +178,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,34 +219,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{16EF4BDC-FB9F-4AA5-88EE-16EAB594B4A6}"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{98B60151-2F4B-40AD-8582-E6A7B877B213}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EC07640B-12C8-4008-870A-6D1CF064243E}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,61 +271,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCEBA2D-5F2E-4120-A31C-AED7F058C353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4867275" y="390526"/>
-          <a:ext cx="4572000" cy="4198620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,9 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3C504-1517-4439-8CB6-64CD86FC1AAC}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -655,153 +590,92 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2018</v>
+      <c r="B5" s="7">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>2</v>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>2017</v>
+      <c r="B11" s="7">
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{95049637-93AE-4459-97A9-ED566F862A07}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{0B4DBBE0-E563-4FF9-9E60-2E166BC78EA1}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{DDB9B43F-5E96-429F-91B6-C7F406976B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EEAD45-8CD8-474E-BA40-724705BC176E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -809,184 +683,514 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="12">
+        <f>SUM(F4:F9)</f>
+        <v>10002.4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="13">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>5395</v>
-      </c>
-      <c r="C2">
-        <v>107</v>
-      </c>
-      <c r="D2" s="6">
-        <f>B2/C2</f>
-        <v>50.420560747663551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2405</v>
-      </c>
-      <c r="C3">
-        <v>85</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D11" si="0">B3/C3</f>
-        <v>28.294117647058822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2801</v>
-      </c>
-      <c r="C4">
-        <v>83</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>33.746987951807228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>2170</v>
-      </c>
-      <c r="C5">
-        <v>65</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>33.384615384615387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1274</v>
-      </c>
-      <c r="C6">
-        <v>58</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>21.96551724137931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14">
+        <f>5*52</f>
+        <v>260</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5">
+        <f>A4*C4*D4</f>
+        <v>3120</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>100</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14">
+        <f>5*52</f>
+        <v>260</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5">
+        <f>A5*C5*D5</f>
+        <v>3900</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>2096</v>
-      </c>
-      <c r="C7">
-        <v>56</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>37.428571428571431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>2045</v>
-      </c>
-      <c r="C8">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>38.584905660377359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>872</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>17.440000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>723</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>15.0625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>815</v>
-      </c>
-      <c r="C11">
+      <c r="D6" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5">
+        <f>A6*C6*D6</f>
+        <v>2400</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <f>2.8</f>
+        <v>2.8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14">
+        <f>10*4*52</f>
+        <v>2080</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>23.285714285714285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
-        <f>C12*AVERAGE(D2:D11)</f>
-        <v>509.34293359021859</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
+      <c r="F9" s="5">
+        <f>A9*C9*D9</f>
+        <v>582.4</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>Data!F2/Data!H2</f>
+        <v>555.68888888888887</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -997,7 +1201,9 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1006,42 +1212,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>40</v>
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7">
-        <f>Data!B12*About!A34</f>
-        <v>477.25432877403483</v>
-      </c>
-      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18">
+        <f>Data!A12*About!A19</f>
+        <v>499.00862222222224</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="7">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1052,7 +1258,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1063,7 +1269,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1074,9 +1280,9 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7">
